--- a/Data/Tables/FoodDefine.xlsx
+++ b/Data/Tables/FoodDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12530" windowHeight="6500"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -37,6 +37,9 @@
     <t>菜品名称</t>
   </si>
   <si>
+    <t>图标</t>
+  </si>
+  <si>
     <t>消耗材料Id列表</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>Supplies</t>
   </si>
   <si>
@@ -79,7 +85,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>测试</t>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
   </si>
   <si>
     <t>[10001,10002,10003]</t>
@@ -88,22 +97,67 @@
     <t>[1,2,3]</t>
   </si>
   <si>
-    <t>测试文本</t>
+    <t>测试文本1</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>Melon</t>
   </si>
   <si>
     <t>[1,2,4]</t>
   </si>
   <si>
+    <t>测试文本2</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
     <t>[1,2,5]</t>
   </si>
   <si>
+    <t>测试文本3</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
     <t>[1,2,6]</t>
   </si>
   <si>
+    <t>测试文本4</t>
+  </si>
+  <si>
+    <t>测试5</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
     <t>[1,2,7]</t>
   </si>
   <si>
+    <t>测试文本5</t>
+  </si>
+  <si>
+    <t>答辩</t>
+  </si>
+  <si>
+    <t>Feces</t>
+  </si>
+  <si>
     <t>[1,2,8]</t>
+  </si>
+  <si>
+    <t>不会真有人喜欢吃这个吧?</t>
   </si>
 </sst>
 </file>
@@ -818,12 +872,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G9" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G9" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H9" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H9" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Key"/>
     <tableColumn id="2" name="ID"/>
     <tableColumn id="3" name="Name"/>
+    <tableColumn id="8" name="Icon"/>
     <tableColumn id="4" name="Supplies"/>
     <tableColumn id="5" name="Sum"/>
     <tableColumn id="6" name="Price"/>
@@ -1083,21 +1138,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="27.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="11.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="17.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="27.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="11.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1117,56 +1173,65 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>2001</v>
       </c>
@@ -1174,22 +1239,25 @@
         <v>2001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>2002</v>
       </c>
@@ -1197,22 +1265,25 @@
         <v>2002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>2003</v>
       </c>
@@ -1220,22 +1291,25 @@
         <v>2003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>19</v>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>2004</v>
       </c>
@@ -1243,22 +1317,25 @@
         <v>2004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>2005</v>
       </c>
@@ -1266,22 +1343,25 @@
         <v>2005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="4">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="26" spans="1:8">
       <c r="A9" s="4">
         <v>2006</v>
       </c>
@@ -1289,19 +1369,22 @@
         <v>2006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>19</v>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Tables/FoodDefine.xlsx
+++ b/Data/Tables/FoodDefine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>好评</t>
+  </si>
+  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Acclaim</t>
+  </si>
+  <si>
     <t>测试1</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>测试文本1</t>
+  </si>
+  <si>
+    <t>["测试好评1","测试好评2","测试好评3"]</t>
   </si>
   <si>
     <t>测试2</t>
@@ -872,9 +881,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H9" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H9" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I9" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:I9" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Key"/>
     <tableColumn id="2" name="ID"/>
     <tableColumn id="3" name="Name"/>
@@ -883,6 +892,7 @@
     <tableColumn id="5" name="Sum"/>
     <tableColumn id="6" name="Price"/>
     <tableColumn id="7" name="Description"/>
+    <tableColumn id="9" name="Acclaim"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1141,7 +1151,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1151,6 +1161,7 @@
     <col min="5" max="5" width="27.6363636363636" customWidth="1"/>
     <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="11.9090909090909" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1176,62 +1187,69 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="4">
         <v>2001</v>
       </c>
@@ -1239,25 +1257,28 @@
         <v>2001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="4">
         <v>2002</v>
       </c>
@@ -1265,25 +1286,28 @@
         <v>2002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="4">
         <v>2003</v>
       </c>
@@ -1291,25 +1315,28 @@
         <v>2003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="4">
         <v>2004</v>
       </c>
@@ -1317,25 +1344,28 @@
         <v>2004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="4">
         <v>2005</v>
       </c>
@@ -1343,25 +1373,28 @@
         <v>2005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" ht="26" spans="1:8">
+    <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="4">
         <v>2006</v>
       </c>
@@ -1369,22 +1402,25 @@
         <v>2006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4">
         <v>6</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Tables/FoodDefine.xlsx
+++ b/Data/Tables/FoodDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="19650" windowHeight="8360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -97,7 +97,7 @@
     <t>Kiwi</t>
   </si>
   <si>
-    <t>[10001,10002,10003]</t>
+    <t>[2,1,1]</t>
   </si>
   <si>
     <t>[1,2,3]</t>
@@ -139,6 +139,9 @@
     <t>Pineapple</t>
   </si>
   <si>
+    <t>[3,2,1]</t>
+  </si>
+  <si>
     <t>[1,2,6]</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>Strawberry</t>
   </si>
   <si>
+    <t>[2,2,2]</t>
+  </si>
+  <si>
     <t>[1,2,7]</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
   </si>
   <si>
     <t>Feces</t>
+  </si>
+  <si>
+    <t>[3,3,3]</t>
   </si>
   <si>
     <t>[1,2,8]</t>
@@ -1151,7 +1160,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1292,7 +1301,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>28</v>
@@ -1321,7 +1330,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>32</v>
@@ -1350,16 +1359,16 @@
         <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>25</v>
@@ -1373,22 +1382,22 @@
         <v>2005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>25</v>
@@ -1402,22 +1411,22 @@
         <v>2006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4">
         <v>6</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>25</v>

--- a/Data/Tables/FoodDefine.xlsx
+++ b/Data/Tables/FoodDefine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -97,7 +97,7 @@
     <t>Kiwi</t>
   </si>
   <si>
-    <t>[2,1,1]</t>
+    <t>[2,1,3]</t>
   </si>
   <si>
     <t>[1,2,3]</t>
@@ -127,6 +127,9 @@
     <t>Orange</t>
   </si>
   <si>
+    <t>[1,3,1]</t>
+  </si>
+  <si>
     <t>[1,2,5]</t>
   </si>
   <si>
@@ -154,10 +157,10 @@
     <t>Strawberry</t>
   </si>
   <si>
-    <t>[2,2,2]</t>
-  </si>
-  <si>
-    <t>[1,2,7]</t>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[10]</t>
   </si>
   <si>
     <t>测试文本5</t>
@@ -169,7 +172,7 @@
     <t>Feces</t>
   </si>
   <si>
-    <t>[3,3,3]</t>
+    <t>[3,1,2]</t>
   </si>
   <si>
     <t>[1,2,8]</t>
@@ -1160,7 +1163,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1330,16 +1333,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>25</v>
@@ -1353,22 +1356,22 @@
         <v>2004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>25</v>
@@ -1382,22 +1385,22 @@
         <v>2005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>25</v>
@@ -1411,22 +1414,22 @@
         <v>2006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4">
         <v>6</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>25</v>

--- a/Data/Tables/FoodDefine.xlsx
+++ b/Data/Tables/FoodDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="8360"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,79 +91,79 @@
     <t>Acclaim</t>
   </si>
   <si>
-    <t>测试1</t>
-  </si>
-  <si>
-    <t>Kiwi</t>
-  </si>
-  <si>
-    <t>[2,1,3]</t>
-  </si>
-  <si>
-    <t>[1,2,3]</t>
-  </si>
-  <si>
-    <t>测试文本1</t>
-  </si>
-  <si>
-    <t>["测试好评1","测试好评2","测试好评3"]</t>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>Melon</t>
-  </si>
-  <si>
-    <t>[1,2,4]</t>
-  </si>
-  <si>
-    <t>测试文本2</t>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>[1,3,1]</t>
-  </si>
-  <si>
-    <t>[1,2,5]</t>
-  </si>
-  <si>
-    <t>测试文本3</t>
-  </si>
-  <si>
-    <t>测试4</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>[3,2,1]</t>
-  </si>
-  <si>
-    <t>[1,2,6]</t>
-  </si>
-  <si>
-    <t>测试文本4</t>
-  </si>
-  <si>
-    <t>测试5</t>
-  </si>
-  <si>
-    <t>Strawberry</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>测试文本5</t>
+    <t>猕猴桃果汁</t>
+  </si>
+  <si>
+    <t>猕猴桃</t>
+  </si>
+  <si>
+    <t>[10001]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>豪呵</t>
+  </si>
+  <si>
+    <t>["太豪呵了"]</t>
+  </si>
+  <si>
+    <t>橙汁</t>
+  </si>
+  <si>
+    <t>橙子</t>
+  </si>
+  <si>
+    <t>[10002]</t>
+  </si>
+  <si>
+    <t>苹果派</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>[10004]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>豪痴</t>
+  </si>
+  <si>
+    <t>["太豪痴了","nb666","不错"]</t>
+  </si>
+  <si>
+    <t>草莓蛋糕</t>
+  </si>
+  <si>
+    <t>草莓</t>
+  </si>
+  <si>
+    <t>[10005]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>["太豪痴了","nb667","不错"]</t>
+  </si>
+  <si>
+    <t>菠萝披萨</t>
+  </si>
+  <si>
+    <t>菠萝</t>
+  </si>
+  <si>
+    <t>[10006]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>["太豪痴了","nb668","不错"]</t>
   </si>
   <si>
     <t>答辩</t>
@@ -178,7 +178,7 @@
     <t>[1,2,8]</t>
   </si>
   <si>
-    <t>不会真有人喜欢吃这个吧?</t>
+    <t>["太豪痴了","nb669","不错"]</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +829,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1163,20 +1166,21 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I6" sqref="I6:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="17.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="27.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="11.9090909090909" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.1851851851852" customWidth="1"/>
+    <col min="3" max="3" width="18.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.0925925925926" customWidth="1"/>
+    <col min="5" max="5" width="27.6388888888889" customWidth="1"/>
+    <col min="7" max="7" width="11.8148148148148" customWidth="1"/>
+    <col min="8" max="8" width="11.9074074074074" customWidth="1"/>
+    <col min="9" max="9" width="49.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="26.4" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1261,7 +1265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
+    <row r="4" ht="14" customHeight="1" spans="1:9">
       <c r="A4" s="4">
         <v>2001</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>24</v>
@@ -1290,7 +1294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:9">
+    <row r="5" ht="14" customHeight="1" spans="1:9">
       <c r="A5" s="4">
         <v>2002</v>
       </c>
@@ -1304,22 +1308,22 @@
         <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:9">
+    <row r="6" ht="14" customHeight="1" spans="1:9">
       <c r="A6" s="4">
         <v>2003</v>
       </c>
@@ -1327,28 +1331,28 @@
         <v>2003</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:9">
+    <row r="7" ht="14" customHeight="1" spans="1:9">
       <c r="A7" s="4">
         <v>2004</v>
       </c>
@@ -1358,7 +1362,7 @@
       <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1371,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:9">
+    <row r="8" ht="14" customHeight="1" spans="1:9">
       <c r="A8" s="4">
         <v>2005</v>
       </c>
@@ -1387,7 +1391,7 @@
       <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1400,13 +1404,13 @@
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:9">
+    <row r="9" ht="14" customHeight="1" spans="1:9">
       <c r="A9" s="4">
         <v>2006</v>
       </c>
@@ -1429,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1458,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1471,7 +1475,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
